--- a/buses_1.xlsx
+++ b/buses_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EdioD\PycharmProjects\variacao-tensao-frp\13Bus\23742222\pyomo_data\model_reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D7A813-79C1-480C-BC8C-C72E2901BA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56B544-31FA-43E2-BAAB-FF7424A13CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33615" yWindow="2100" windowWidth="20490" windowHeight="8925" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="135">
   <si>
     <t>N</t>
   </si>
@@ -423,6 +423,24 @@
   </si>
   <si>
     <t>PV114</t>
+  </si>
+  <si>
+    <t>p_pv_1</t>
+  </si>
+  <si>
+    <t>q_pv_1</t>
+  </si>
+  <si>
+    <t>p_pv_2</t>
+  </si>
+  <si>
+    <t>q_pv_2</t>
+  </si>
+  <si>
+    <t>p_pv_3</t>
+  </si>
+  <si>
+    <t>q_pv_3</t>
   </si>
 </sst>
 </file>
@@ -500,7 +518,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1719,7 +1737,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F6DECE-9BDD-4A17-B474-5E7879AE55FA}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,15 +3652,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEAADF9-A235-4847-B98B-1C70DC88E2B7}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -3661,8 +3679,26 @@
       <c r="F1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -3681,8 +3717,26 @@
       <c r="F2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>25.260738372802731</v>
+      </c>
+      <c r="H2">
+        <v>3.3857821836136281E-4</v>
+      </c>
+      <c r="I2">
+        <v>25.260662078857418</v>
+      </c>
+      <c r="J2">
+        <v>2.288605319336057E-4</v>
+      </c>
+      <c r="K2">
+        <v>25.260776519775391</v>
+      </c>
+      <c r="L2">
+        <v>3.9763719541952009E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -3701,8 +3755,26 @@
       <c r="F3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>25.260757446289059</v>
+      </c>
+      <c r="H3">
+        <v>3.7184715620242059E-4</v>
+      </c>
+      <c r="I3">
+        <v>25.260677337646481</v>
+      </c>
+      <c r="J3">
+        <v>2.5734675000421697E-4</v>
+      </c>
+      <c r="K3">
+        <v>25.260795593261719</v>
+      </c>
+      <c r="L3">
+        <v>4.3288557208143169E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -3721,8 +3793,26 @@
       <c r="F4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>25.260772705078121</v>
+      </c>
+      <c r="H4">
+        <v>3.9451112388633192E-4</v>
+      </c>
+      <c r="I4">
+        <v>25.260686874389648</v>
+      </c>
+      <c r="J4">
+        <v>2.7683118241839111E-4</v>
+      </c>
+      <c r="K4">
+        <v>25.260810852050781</v>
+      </c>
+      <c r="L4">
+        <v>4.5686861267313361E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -3741,8 +3831,26 @@
       <c r="F5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>25.26077842712402</v>
+      </c>
+      <c r="H5">
+        <v>4.0598856867291028E-4</v>
+      </c>
+      <c r="I5">
+        <v>25.26069259643555</v>
+      </c>
+      <c r="J5">
+        <v>2.8671984910033638E-4</v>
+      </c>
+      <c r="K5">
+        <v>25.260818481445309</v>
+      </c>
+      <c r="L5">
+        <v>4.6900473535060883E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -3761,8 +3869,26 @@
       <c r="F6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>25.26094818115234</v>
+      </c>
+      <c r="H6">
+        <v>6.5874838037416339E-4</v>
+      </c>
+      <c r="I6">
+        <v>25.260696411132809</v>
+      </c>
+      <c r="J6">
+        <v>2.6232888922095299E-4</v>
+      </c>
+      <c r="K6">
+        <v>25.260978698730469</v>
+      </c>
+      <c r="L6">
+        <v>6.8393227411434054E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -3781,8 +3907,26 @@
       <c r="F7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>25.260976791381839</v>
+      </c>
+      <c r="H7">
+        <v>6.6766986856237054E-4</v>
+      </c>
+      <c r="I7">
+        <v>25.260709762573239</v>
+      </c>
+      <c r="J7">
+        <v>2.9260411974973982E-4</v>
+      </c>
+      <c r="K7">
+        <v>25.261007308959961</v>
+      </c>
+      <c r="L7">
+        <v>7.3317991336807609E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -3801,8 +3945,26 @@
       <c r="F8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>25.260993957519531</v>
+      </c>
+      <c r="H8">
+        <v>6.9673045072704554E-4</v>
+      </c>
+      <c r="I8">
+        <v>25.26071929931641</v>
+      </c>
+      <c r="J8">
+        <v>3.1327834585681558E-4</v>
+      </c>
+      <c r="K8">
+        <v>25.261026382446289</v>
+      </c>
+      <c r="L8">
+        <v>7.6647242531180382E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -3821,8 +3983,26 @@
       <c r="F9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>25.261003494262699</v>
+      </c>
+      <c r="H9">
+        <v>7.1348861092701554E-4</v>
+      </c>
+      <c r="I9">
+        <v>25.260725021362301</v>
+      </c>
+      <c r="J9">
+        <v>3.2376128365285689E-4</v>
+      </c>
+      <c r="K9">
+        <v>25.26103591918945</v>
+      </c>
+      <c r="L9">
+        <v>7.8325741924345493E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -3841,8 +4021,26 @@
       <c r="F10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>25.26094818115234</v>
+      </c>
+      <c r="H10">
+        <v>6.5874838037416339E-4</v>
+      </c>
+      <c r="I10">
+        <v>25.260696411132809</v>
+      </c>
+      <c r="J10">
+        <v>2.6232888922095299E-4</v>
+      </c>
+      <c r="K10">
+        <v>25.260978698730469</v>
+      </c>
+      <c r="L10">
+        <v>6.8393227411434054E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -3861,8 +4059,26 @@
       <c r="F11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>25.260976791381839</v>
+      </c>
+      <c r="H11">
+        <v>6.6766986856237054E-4</v>
+      </c>
+      <c r="I11">
+        <v>25.260709762573239</v>
+      </c>
+      <c r="J11">
+        <v>2.9260411974973982E-4</v>
+      </c>
+      <c r="K11">
+        <v>25.261007308959961</v>
+      </c>
+      <c r="L11">
+        <v>7.3317991336807609E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -3881,8 +4097,26 @@
       <c r="F12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>25.260993957519531</v>
+      </c>
+      <c r="H12">
+        <v>6.9673045072704554E-4</v>
+      </c>
+      <c r="I12">
+        <v>25.26071929931641</v>
+      </c>
+      <c r="J12">
+        <v>3.1327834585681558E-4</v>
+      </c>
+      <c r="K12">
+        <v>25.261026382446289</v>
+      </c>
+      <c r="L12">
+        <v>7.6647242531180382E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -3901,8 +4135,26 @@
       <c r="F13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>25.261003494262699</v>
+      </c>
+      <c r="H13">
+        <v>7.1348861092701554E-4</v>
+      </c>
+      <c r="I13">
+        <v>25.260725021362301</v>
+      </c>
+      <c r="J13">
+        <v>3.2376128365285689E-4</v>
+      </c>
+      <c r="K13">
+        <v>25.26103591918945</v>
+      </c>
+      <c r="L13">
+        <v>7.8325741924345493E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -3921,8 +4173,26 @@
       <c r="F14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>25.260944366455082</v>
+      </c>
+      <c r="H14">
+        <v>6.6433713072910905E-4</v>
+      </c>
+      <c r="I14">
+        <v>25.260696411132809</v>
+      </c>
+      <c r="J14">
+        <v>2.5972307776100928E-4</v>
+      </c>
+      <c r="K14">
+        <v>25.260980606079102</v>
+      </c>
+      <c r="L14">
+        <v>6.8255607038736343E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -3941,8 +4211,26 @@
       <c r="F15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>25.260971069335941</v>
+      </c>
+      <c r="H15">
+        <v>6.7254970781505108E-4</v>
+      </c>
+      <c r="I15">
+        <v>25.260709762573239</v>
+      </c>
+      <c r="J15">
+        <v>2.8957540052942932E-4</v>
+      </c>
+      <c r="K15">
+        <v>25.261007308959961</v>
+      </c>
+      <c r="L15">
+        <v>7.3167204391211271E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -3961,8 +4249,26 @@
       <c r="F16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>25.260990142822269</v>
+      </c>
+      <c r="H16">
+        <v>6.860127323307097E-4</v>
+      </c>
+      <c r="I16">
+        <v>25.26071929931641</v>
+      </c>
+      <c r="J16">
+        <v>3.0996350687928498E-4</v>
+      </c>
+      <c r="K16">
+        <v>25.261026382446289</v>
+      </c>
+      <c r="L16">
+        <v>7.6487869955599308E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -3981,8 +4287,26 @@
       <c r="F17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>25.26099967956543</v>
+      </c>
+      <c r="H17">
+        <v>7.0264958776533604E-4</v>
+      </c>
+      <c r="I17">
+        <v>25.260723114013668</v>
+      </c>
+      <c r="J17">
+        <v>3.2030651345849043E-4</v>
+      </c>
+      <c r="K17">
+        <v>25.26103591918945</v>
+      </c>
+      <c r="L17">
+        <v>7.8162027057260275E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -4001,8 +4325,26 @@
       <c r="F18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>25.260929107666019</v>
+      </c>
+      <c r="H18">
+        <v>6.4086535712704062E-4</v>
+      </c>
+      <c r="I18">
+        <v>25.260684967041019</v>
+      </c>
+      <c r="J18">
+        <v>2.463286800775677E-4</v>
+      </c>
+      <c r="K18">
+        <v>25.260959625244141</v>
+      </c>
+      <c r="L18">
+        <v>6.5682537388056517E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -4021,8 +4363,26 @@
       <c r="F19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>25.260955810546879</v>
+      </c>
+      <c r="H19">
+        <v>6.4887548796832561E-4</v>
+      </c>
+      <c r="I19">
+        <v>25.260698318481449</v>
+      </c>
+      <c r="J19">
+        <v>2.7542660245671868E-4</v>
+      </c>
+      <c r="K19">
+        <v>25.260988235473629</v>
+      </c>
+      <c r="L19">
+        <v>7.0468109333887696E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -4041,8 +4401,26 @@
       <c r="F20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>25.26097297668457</v>
+      </c>
+      <c r="H20">
+        <v>6.6499621607363224E-4</v>
+      </c>
+      <c r="I20">
+        <v>25.260707855224609</v>
+      </c>
+      <c r="J20">
+        <v>2.953159564640373E-4</v>
+      </c>
+      <c r="K20">
+        <v>25.261005401611332</v>
+      </c>
+      <c r="L20">
+        <v>7.3705019894987345E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -4061,8 +4439,26 @@
       <c r="F21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>25.260982513427731</v>
+      </c>
+      <c r="H21">
+        <v>6.8124948302283883E-4</v>
+      </c>
+      <c r="I21">
+        <v>25.260713577270511</v>
+      </c>
+      <c r="J21">
+        <v>3.0540543957613409E-4</v>
+      </c>
+      <c r="K21">
+        <v>25.261014938354489</v>
+      </c>
+      <c r="L21">
+        <v>7.5337430462241173E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -4081,8 +4477,26 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>22.73484992980957</v>
+      </c>
+      <c r="H22">
+        <v>5.8199983322992921E-4</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -4101,8 +4515,26 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>22.734884262084961</v>
+      </c>
+      <c r="H23">
+        <v>6.1173253925517201E-4</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -4121,8 +4553,26 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>22.734907150268551</v>
+      </c>
+      <c r="H24">
+        <v>6.526728393509984E-4</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -4141,8 +4591,26 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>22.734918594360352</v>
+      </c>
+      <c r="H25">
+        <v>6.7337311338633299E-4</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -4161,8 +4629,26 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>22.73488616943359</v>
+      </c>
+      <c r="H26">
+        <v>6.100541795603931E-4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -4181,8 +4667,26 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>22.734922409057621</v>
+      </c>
+      <c r="H27">
+        <v>6.7208340624347329E-4</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -4201,8 +4705,26 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>22.73494720458984</v>
+      </c>
+      <c r="H28">
+        <v>7.1551906876266003E-4</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -4221,8 +4743,26 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>22.734958648681641</v>
+      </c>
+      <c r="H29">
+        <v>7.3746481211856008E-4</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -4241,8 +4781,26 @@
       <c r="F30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>22.734905242919918</v>
+      </c>
+      <c r="L30">
+        <v>6.5313884988427162E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -4261,8 +4819,26 @@
       <c r="F31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>22.734939575195309</v>
+      </c>
+      <c r="L31">
+        <v>7.1480107726529241E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -4281,8 +4857,26 @@
       <c r="F32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>22.734964370727539</v>
+      </c>
+      <c r="L32">
+        <v>7.5667514465749264E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -4301,8 +4895,26 @@
       <c r="F33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>22.734975814819339</v>
+      </c>
+      <c r="L33">
+        <v>7.7784177847206593E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -4321,8 +4933,26 @@
       <c r="F34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>22.73464393615723</v>
+      </c>
+      <c r="J34">
+        <v>2.7866114396601921E-4</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -4341,8 +4971,26 @@
       <c r="F35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>22.734670639038089</v>
+      </c>
+      <c r="J35">
+        <v>3.2308322261087602E-4</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -4361,8 +5009,26 @@
       <c r="F36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>22.734687805175781</v>
+      </c>
+      <c r="J36">
+        <v>3.5350260441191489E-4</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -4381,8 +5047,26 @@
       <c r="F37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>22.734697341918949</v>
+      </c>
+      <c r="J37">
+        <v>3.6895312950946391E-4</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -4401,8 +5085,26 @@
       <c r="F38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>22.73471832275391</v>
+      </c>
+      <c r="L38">
+        <v>3.8646147004328668E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -4421,8 +5123,26 @@
       <c r="F39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>22.734745025634769</v>
+      </c>
+      <c r="L39">
+        <v>4.3183693196624517E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -4441,8 +5161,26 @@
       <c r="F40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>22.73476409912109</v>
+      </c>
+      <c r="L40">
+        <v>4.6288900193758309E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -4461,8 +5199,26 @@
       <c r="F41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>22.734773635864261</v>
+      </c>
+      <c r="L41">
+        <v>4.7865574015304452E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -4481,8 +5237,26 @@
       <c r="F42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>22.734634399414059</v>
+      </c>
+      <c r="J42">
+        <v>2.6345928199589252E-4</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -4501,8 +5275,26 @@
       <c r="F43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>22.734659194946289</v>
+      </c>
+      <c r="J43">
+        <v>3.0651708948425949E-4</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -4521,8 +5313,26 @@
       <c r="F44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>22.734676361083981</v>
+      </c>
+      <c r="J44">
+        <v>3.3603183692321181E-4</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -4540,6 +5350,24 @@
       </c>
       <c r="F45">
         <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>22.734685897827148</v>
+      </c>
+      <c r="J45">
+        <v>3.5103026311844587E-4</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/buses_1.xlsx
+++ b/buses_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EdioD\PycharmProjects\variacao-tensao-frp\13Bus\23742222\pyomo_data\model_reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56B544-31FA-43E2-BAAB-FF7424A13CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFE553E-8C8E-426E-9759-13427836C565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="134">
   <si>
     <t>N</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>Ligacao Traf Sub(trif)</t>
-  </si>
-  <si>
-    <t>1,2,4</t>
   </si>
   <si>
     <t>Ramo</t>
@@ -1737,7 +1734,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,7 +1855,7 @@
         <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,7 +1878,7 @@
         <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1904,7 +1901,7 @@
         <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1927,7 +1924,7 @@
         <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1947,10 +1944,10 @@
         <v>4.16</v>
       </c>
       <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
         <v>75</v>
-      </c>
-      <c r="G9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1973,7 +1970,7 @@
         <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1996,7 +1993,7 @@
         <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2019,7 +2016,7 @@
         <v>1.2</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2042,7 +2039,7 @@
         <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2065,7 +2062,7 @@
         <v>1.2</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2088,7 +2085,7 @@
         <v>1.2</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2111,7 +2108,7 @@
         <v>1.2</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2134,7 +2131,7 @@
         <v>1.2</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F6DECE-9BDD-4A17-B474-5E7879AE55FA}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2173,10 +2170,10 @@
         <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>69</v>
@@ -2208,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3654,7 +3651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEAADF9-A235-4847-B98B-1C70DC88E2B7}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3662,45 +3659,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
       </c>
       <c r="F1" t="s">
         <v>71</v>
       </c>
       <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
         <v>129</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>131</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>132</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>133</v>
-      </c>
-      <c r="L1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -3738,7 +3735,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -3776,7 +3773,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -3814,7 +3811,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -3852,7 +3849,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -3890,7 +3887,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3928,7 +3925,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -3966,7 +3963,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -4004,7 +4001,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -4042,7 +4039,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -4080,7 +4077,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -4118,7 +4115,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -4156,7 +4153,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -4194,7 +4191,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -4232,7 +4229,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
@@ -4270,7 +4267,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -4308,7 +4305,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -4346,7 +4343,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -4384,7 +4381,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -4422,7 +4419,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -4460,7 +4457,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -4498,7 +4495,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -4536,7 +4533,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -4574,7 +4571,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -4612,7 +4609,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
@@ -4650,7 +4647,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -4688,7 +4685,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
@@ -4726,7 +4723,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
@@ -4764,7 +4761,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
@@ -4840,7 +4837,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
@@ -4878,7 +4875,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
@@ -4916,7 +4913,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -4954,7 +4951,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
@@ -4992,7 +4989,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -5030,7 +5027,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
         <v>54</v>
@@ -5068,7 +5065,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -5106,7 +5103,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
@@ -5144,7 +5141,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
@@ -5182,7 +5179,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
@@ -5220,7 +5217,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
         <v>61</v>
@@ -5258,7 +5255,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
         <v>62</v>
@@ -5296,7 +5293,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
@@ -5334,7 +5331,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
         <v>64</v>

--- a/buses_1.xlsx
+++ b/buses_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EdioD\PycharmProjects\variacao-tensao-frp\13Bus\23742222\pyomo_data\model_reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFE553E-8C8E-426E-9759-13427836C565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEAC724-D50C-40BB-A0BC-03C0755BB981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36720" yWindow="3885" windowWidth="13605" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="134">
   <si>
     <t>N</t>
   </si>
@@ -1733,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1900E31C-5AB6-4CCA-86CD-D75EB4A67027}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,8 +2012,8 @@
       <c r="E12">
         <v>4.16</v>
       </c>
-      <c r="F12">
-        <v>1.2</v>
+      <c r="F12" t="s">
+        <v>72</v>
       </c>
       <c r="G12" t="s">
         <v>75</v>
@@ -2059,7 +2059,7 @@
         <v>4.16</v>
       </c>
       <c r="F14">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G14" t="s">
         <v>75</v>
@@ -2082,7 +2082,7 @@
         <v>4.16</v>
       </c>
       <c r="F15">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G15" t="s">
         <v>75</v>
@@ -2105,7 +2105,7 @@
         <v>4.16</v>
       </c>
       <c r="F16">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
         <v>75</v>
@@ -2128,7 +2128,7 @@
         <v>4.16</v>
       </c>
       <c r="F17">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>75</v>
@@ -3651,7 +3651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEAADF9-A235-4847-B98B-1C70DC88E2B7}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
